--- a/selected_particles/9_particle_selection.xlsx
+++ b/selected_particles/9_particle_selection.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="9_particle_selection" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'9_particle_selection'!$A$1:$H$48</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>frame</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>actual_size</t>
   </si>
   <si>
     <t>video</t>
@@ -89,10 +94,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.86"/>
-    <col customWidth="1" min="3" max="3" width="2.14"/>
-    <col customWidth="1" min="4" max="4" width="3.71"/>
-    <col customWidth="1" min="6" max="6" width="4.14"/>
+    <col customWidth="1" min="1" max="1" width="5.86"/>
+    <col customWidth="1" min="2" max="2" width="7.14"/>
+    <col customWidth="1" min="3" max="5" width="12.0"/>
+    <col customWidth="1" min="6" max="6" width="10.43"/>
+    <col customWidth="1" min="7" max="7" width="5.57"/>
+    <col customWidth="1" min="8" max="8" width="6.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -117,6 +124,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -135,13 +145,16 @@
         <v>12.2466981184378</v>
       </c>
       <c r="F2" s="1">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>9.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" hidden="1">
       <c r="A3" s="1">
         <v>0.0</v>
       </c>
@@ -161,6 +174,9 @@
         <v>9.0</v>
       </c>
       <c r="G3" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -181,13 +197,16 @@
         <v>14.281819612788</v>
       </c>
       <c r="F4" s="1">
-        <v>9.0</v>
+        <v>20.5</v>
       </c>
       <c r="G4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>9.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
       <c r="A5" s="1">
         <v>0.0</v>
       </c>
@@ -204,9 +223,12 @@
         <v>18.7386562078306</v>
       </c>
       <c r="F5" s="1">
-        <v>9.0</v>
+        <v>6.5</v>
       </c>
       <c r="G5" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -227,13 +249,16 @@
         <v>11.9405315697609</v>
       </c>
       <c r="F6" s="1">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>9.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7" hidden="1">
       <c r="A7" s="1">
         <v>0.0</v>
       </c>
@@ -249,10 +274,11 @@
       <c r="E7" s="1">
         <v>11.9976480829487</v>
       </c>
-      <c r="F7" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -273,13 +299,16 @@
         <v>10.8598502303459</v>
       </c>
       <c r="F8" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>9.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
       <c r="A9" s="1">
         <v>0.0</v>
       </c>
@@ -295,10 +324,11 @@
       <c r="E9" s="1">
         <v>15.4585083976276</v>
       </c>
-      <c r="F9" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -319,13 +349,16 @@
         <v>18.977416280356</v>
       </c>
       <c r="F10" s="1">
-        <v>9.0</v>
+        <v>32.0</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>9.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="1">
         <v>0.0</v>
       </c>
@@ -341,14 +374,15 @@
       <c r="E11" s="1">
         <v>19.774032917809</v>
       </c>
-      <c r="F11" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>9.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" hidden="1">
       <c r="A12" s="1">
         <v>0.0</v>
       </c>
@@ -364,14 +398,15 @@
       <c r="E12" s="1">
         <v>13.1672658185064</v>
       </c>
-      <c r="F12" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>9.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" hidden="1">
       <c r="A13" s="1">
         <v>0.0</v>
       </c>
@@ -387,10 +422,11 @@
       <c r="E13" s="1">
         <v>17.4843548344333</v>
       </c>
-      <c r="F13" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -411,9 +447,12 @@
         <v>22.4361565154445</v>
       </c>
       <c r="F14" s="1">
-        <v>9.0</v>
+        <v>37.5</v>
       </c>
       <c r="G14" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H14" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -434,9 +473,12 @@
         <v>9.41390860508117</v>
       </c>
       <c r="F15" s="1">
-        <v>9.0</v>
+        <v>12.5</v>
       </c>
       <c r="G15" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H15" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -457,13 +499,16 @@
         <v>13.5750430562525</v>
       </c>
       <c r="F16" s="1">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="G16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>9.0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="1">
         <v>0.0</v>
       </c>
@@ -479,10 +524,11 @@
       <c r="E17" s="1">
         <v>13.4005009976688</v>
       </c>
-      <c r="F17" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -503,9 +549,12 @@
         <v>11.3362365234043</v>
       </c>
       <c r="F18" s="1">
-        <v>9.0</v>
+        <v>14.5</v>
       </c>
       <c r="G18" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H18" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -526,13 +575,16 @@
         <v>23.3171261914076</v>
       </c>
       <c r="F19" s="1">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>9.0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="1">
         <v>0.0</v>
       </c>
@@ -548,10 +600,11 @@
       <c r="E20" s="1">
         <v>20.604786168496</v>
       </c>
-      <c r="F20" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -572,9 +625,12 @@
         <v>12.6076214745737</v>
       </c>
       <c r="F21" s="1">
-        <v>9.0</v>
+        <v>8.5</v>
       </c>
       <c r="G21" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H21" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -595,9 +651,12 @@
         <v>12.2161783457389</v>
       </c>
       <c r="F22" s="1">
-        <v>9.0</v>
+        <v>10.5</v>
       </c>
       <c r="G22" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H22" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -618,13 +677,16 @@
         <v>14.2531170156124</v>
       </c>
       <c r="F23" s="1">
-        <v>9.0</v>
+        <v>10.5</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>9.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1">
       <c r="A24" s="1">
         <v>0.0</v>
       </c>
@@ -640,10 +702,11 @@
       <c r="E24" s="1">
         <v>20.4696018745362</v>
       </c>
-      <c r="F24" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H24" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -664,9 +727,12 @@
         <v>17.9553088250956</v>
       </c>
       <c r="F25" s="1">
-        <v>9.0</v>
+        <v>28.5</v>
       </c>
       <c r="G25" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H25" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -687,13 +753,16 @@
         <v>10.0146785474006</v>
       </c>
       <c r="F26" s="1">
-        <v>9.0</v>
+        <v>10.5</v>
       </c>
       <c r="G26" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>9.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="1">
         <v>0.0</v>
       </c>
@@ -709,10 +778,11 @@
       <c r="E27" s="1">
         <v>15.2372962925325</v>
       </c>
-      <c r="F27" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -733,13 +803,16 @@
         <v>9.4939441045322</v>
       </c>
       <c r="F28" s="1">
-        <v>9.0</v>
+        <v>12.5</v>
       </c>
       <c r="G28" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>9.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
       <c r="A29" s="1">
         <v>0.0</v>
       </c>
@@ -755,14 +828,15 @@
       <c r="E29" s="1">
         <v>14.7436781976713</v>
       </c>
-      <c r="F29" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>9.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
       <c r="A30" s="1">
         <v>0.0</v>
       </c>
@@ -778,14 +852,15 @@
       <c r="E30" s="1">
         <v>12.346054638505</v>
       </c>
-      <c r="F30" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>9.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="1">
         <v>0.0</v>
       </c>
@@ -801,14 +876,15 @@
       <c r="E31" s="1">
         <v>19.5501699572157</v>
       </c>
-      <c r="F31" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>9.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
       <c r="A32" s="1">
         <v>0.0</v>
       </c>
@@ -824,14 +900,15 @@
       <c r="E32" s="1">
         <v>21.9738793158205</v>
       </c>
-      <c r="F32" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>9.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="1">
         <v>0.0</v>
       </c>
@@ -847,10 +924,11 @@
       <c r="E33" s="1">
         <v>17.3582608105609</v>
       </c>
-      <c r="F33" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H33" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -871,13 +949,16 @@
         <v>14.8129670045389</v>
       </c>
       <c r="F34" s="1">
-        <v>9.0</v>
+        <v>9.5</v>
       </c>
       <c r="G34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>9.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
       <c r="A35" s="1">
         <v>0.0</v>
       </c>
@@ -893,10 +974,11 @@
       <c r="E35" s="1">
         <v>16.3743668925169</v>
       </c>
-      <c r="F35" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H35" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -917,13 +999,16 @@
         <v>10.77324061173</v>
       </c>
       <c r="F36" s="1">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="G36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>9.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37" hidden="1">
       <c r="A37" s="1">
         <v>0.0</v>
       </c>
@@ -939,14 +1024,15 @@
       <c r="E37" s="1">
         <v>15.6701832225429</v>
       </c>
-      <c r="F37" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>9.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" hidden="1">
       <c r="A38" s="1">
         <v>0.0</v>
       </c>
@@ -962,14 +1048,15 @@
       <c r="E38" s="1">
         <v>12.4071201829702</v>
       </c>
-      <c r="F38" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>9.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" hidden="1">
       <c r="A39" s="1">
         <v>0.0</v>
       </c>
@@ -985,14 +1072,15 @@
       <c r="E39" s="1">
         <v>15.1710317210069</v>
       </c>
-      <c r="F39" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>9.0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40" hidden="1">
       <c r="A40" s="1">
         <v>0.0</v>
       </c>
@@ -1008,14 +1096,15 @@
       <c r="E40" s="1">
         <v>19.2936258258958</v>
       </c>
-      <c r="F40" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>9.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41" hidden="1">
       <c r="A41" s="1">
         <v>0.0</v>
       </c>
@@ -1031,10 +1120,11 @@
       <c r="E41" s="1">
         <v>21.6069258310127</v>
       </c>
-      <c r="F41" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H41" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -1055,13 +1145,16 @@
         <v>10.7287218858925</v>
       </c>
       <c r="F42" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G42" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>9.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" hidden="1">
       <c r="A43" s="1">
         <v>0.0</v>
       </c>
@@ -1077,14 +1170,15 @@
       <c r="E43" s="1">
         <v>20.6711691584106</v>
       </c>
-      <c r="F43" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>9.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" hidden="1">
       <c r="A44" s="1">
         <v>0.0</v>
       </c>
@@ -1100,14 +1194,15 @@
       <c r="E44" s="1">
         <v>19.8608387212653</v>
       </c>
-      <c r="F44" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>9.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" hidden="1">
       <c r="A45" s="1">
         <v>0.0</v>
       </c>
@@ -1123,14 +1218,15 @@
       <c r="E45" s="1">
         <v>20.2049000990303</v>
       </c>
-      <c r="F45" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>9.0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" hidden="1">
       <c r="A46" s="1">
         <v>0.0</v>
       </c>
@@ -1146,10 +1242,11 @@
       <c r="E46" s="1">
         <v>11.5080048842973</v>
       </c>
-      <c r="F46" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H46" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -1170,9 +1267,12 @@
         <v>11.8188289895876</v>
       </c>
       <c r="F47" s="1">
-        <v>9.0</v>
+        <v>16.5</v>
       </c>
       <c r="G47" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H47" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -1193,13 +1293,23 @@
         <v>14.7480256493048</v>
       </c>
       <c r="F48" s="1">
-        <v>9.0</v>
+        <v>8.5</v>
       </c>
       <c r="G48" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H48" s="1">
         <v>1.0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$H$48">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>